--- a/Trainingdata_validation.xlsx
+++ b/Trainingdata_validation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="441">
   <si>
     <t>Sentence</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>SUBJpolit</t>
+  </si>
+  <si>
+    <t>SUBJlang01</t>
+  </si>
+  <si>
+    <t>SUBJopin01</t>
   </si>
   <si>
     <t>watch barack obamas sweet surprise for michelle on their 25th anniversary</t>
@@ -1680,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L397"/>
+  <dimension ref="A1:N397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1688,7 +1694,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1725,13 +1731,19 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1763,13 +1775,19 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -1801,14 +1819,20 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
@@ -1839,13 +1863,19 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1877,13 +1907,19 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1915,13 +1951,19 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1953,13 +1995,19 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1991,13 +2039,19 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2029,13 +2083,19 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
@@ -2067,13 +2127,19 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2105,13 +2171,19 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2143,13 +2215,19 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
@@ -2181,13 +2259,19 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2219,13 +2303,19 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2257,13 +2347,19 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2295,13 +2391,19 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
@@ -2333,13 +2435,19 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
@@ -2371,13 +2479,19 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2409,13 +2523,19 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2447,13 +2567,19 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -2485,13 +2611,19 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -2523,13 +2655,19 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2561,13 +2699,19 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -2599,13 +2743,19 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -2637,13 +2787,19 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -2675,13 +2831,19 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
         <v>3</v>
@@ -2713,13 +2875,19 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -2751,13 +2919,19 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -2789,13 +2963,19 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -2827,13 +3007,19 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -2865,13 +3051,19 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -2903,13 +3095,19 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -2941,13 +3139,19 @@
       <c r="L33" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -2979,13 +3183,19 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -3017,13 +3227,19 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
         <v>49</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
       </c>
       <c r="C36" t="n">
         <v>3</v>
@@ -3055,13 +3271,19 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -3093,13 +3315,19 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -3131,13 +3359,19 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -3169,13 +3403,19 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -3207,13 +3447,19 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -3245,13 +3491,19 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
@@ -3283,13 +3535,19 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -3321,13 +3579,19 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -3359,13 +3623,19 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C45" t="n">
         <v>1</v>
@@ -3397,13 +3667,19 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -3435,13 +3711,19 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -3473,13 +3755,19 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -3511,13 +3799,19 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -3549,13 +3843,19 @@
       <c r="L49" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -3587,13 +3887,19 @@
       <c r="L50" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -3625,13 +3931,19 @@
       <c r="L51" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -3663,13 +3975,19 @@
       <c r="L52" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B53" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -3701,13 +4019,19 @@
       <c r="L53" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C54" t="n">
         <v>3</v>
@@ -3739,13 +4063,19 @@
       <c r="L54" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -3777,14 +4107,20 @@
       <c r="L55" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
         <v>70</v>
       </c>
-      <c r="B56" t="s">
-        <v>68</v>
-      </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
@@ -3815,13 +4151,19 @@
       <c r="L56" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -3853,13 +4195,19 @@
       <c r="L57" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -3891,13 +4239,19 @@
       <c r="L58" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3929,13 +4283,19 @@
       <c r="L59" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -3967,13 +4327,19 @@
       <c r="L60" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -4005,13 +4371,19 @@
       <c r="L61" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C62" t="n">
         <v>5</v>
@@ -4043,13 +4415,19 @@
       <c r="L62" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C63" t="n">
         <v>3</v>
@@ -4081,13 +4459,19 @@
       <c r="L63" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -4119,13 +4503,19 @@
       <c r="L64" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -4157,13 +4547,19 @@
       <c r="L65" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -4195,13 +4591,19 @@
       <c r="L66" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -4233,13 +4635,19 @@
       <c r="L67" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -4271,13 +4679,19 @@
       <c r="L68" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -4309,13 +4723,19 @@
       <c r="L69" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -4347,13 +4767,19 @@
       <c r="L70" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -4385,13 +4811,19 @@
       <c r="L71" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C72" t="n">
         <v>1</v>
@@ -4423,13 +4855,19 @@
       <c r="L72" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
@@ -4461,13 +4899,19 @@
       <c r="L73" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C74" t="n">
         <v>1</v>
@@ -4499,13 +4943,19 @@
       <c r="L74" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C75" t="n">
         <v>3</v>
@@ -4537,13 +4987,19 @@
       <c r="L75" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C76" t="n">
         <v>1</v>
@@ -4575,14 +5031,20 @@
       <c r="L76" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
         <v>92</v>
       </c>
-      <c r="B77" t="s">
-        <v>90</v>
-      </c>
       <c r="C77" t="n">
         <v>1</v>
       </c>
@@ -4613,13 +5075,19 @@
       <c r="L77" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B78" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" t="n">
         <v>1</v>
@@ -4651,13 +5119,19 @@
       <c r="L78" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C79" t="n">
         <v>3</v>
@@ -4689,13 +5163,19 @@
       <c r="L79" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C80" t="n">
         <v>1</v>
@@ -4727,13 +5207,19 @@
       <c r="L80" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C81" t="n">
         <v>1</v>
@@ -4765,13 +5251,19 @@
       <c r="L81" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C82" t="n">
         <v>1</v>
@@ -4803,13 +5295,19 @@
       <c r="L82" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -4841,13 +5339,19 @@
       <c r="L83" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -4879,13 +5383,19 @@
       <c r="L84" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B85" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C85" t="n">
         <v>1</v>
@@ -4917,13 +5427,19 @@
       <c r="L85" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -4955,13 +5471,19 @@
       <c r="L86" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C87" t="n">
         <v>1</v>
@@ -4993,13 +5515,19 @@
       <c r="L87" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C88" t="n">
         <v>1</v>
@@ -5031,13 +5559,19 @@
       <c r="L88" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C89" t="n">
         <v>1</v>
@@ -5069,13 +5603,19 @@
       <c r="L89" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -5107,13 +5647,19 @@
       <c r="L90" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -5145,13 +5691,19 @@
       <c r="L91" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C92" t="n">
         <v>1</v>
@@ -5183,13 +5735,19 @@
       <c r="L92" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C93" t="n">
         <v>1</v>
@@ -5221,13 +5779,19 @@
       <c r="L93" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C94" t="n">
         <v>1</v>
@@ -5259,13 +5823,19 @@
       <c r="L94" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B95" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C95" t="n">
         <v>5</v>
@@ -5297,13 +5867,19 @@
       <c r="L95" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -5335,13 +5911,19 @@
       <c r="L96" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" t="s">
+        <v>115</v>
+      </c>
+      <c r="B97" t="s">
         <v>113</v>
-      </c>
-      <c r="B97" t="s">
-        <v>111</v>
       </c>
       <c r="C97" t="n">
         <v>5</v>
@@ -5373,13 +5955,19 @@
       <c r="L97" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C98" t="n">
         <v>5</v>
@@ -5411,13 +5999,19 @@
       <c r="L98" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
@@ -5449,13 +6043,19 @@
       <c r="L99" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C100" t="n">
         <v>1</v>
@@ -5487,13 +6087,19 @@
       <c r="L100" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -5525,13 +6131,19 @@
       <c r="L101" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C102" t="n">
         <v>5</v>
@@ -5563,13 +6175,19 @@
       <c r="L102" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C103" t="n">
         <v>5</v>
@@ -5601,13 +6219,19 @@
       <c r="L103" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -5639,13 +6263,19 @@
       <c r="L104" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -5677,13 +6307,19 @@
       <c r="L105" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B106" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C106" t="n">
         <v>1</v>
@@ -5715,13 +6351,19 @@
       <c r="L106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C107" t="n">
         <v>5</v>
@@ -5753,13 +6395,19 @@
       <c r="L107" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C108" t="n">
         <v>3</v>
@@ -5791,13 +6439,19 @@
       <c r="L108" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C109" t="n">
         <v>1</v>
@@ -5829,13 +6483,19 @@
       <c r="L109" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C110" t="n">
         <v>3</v>
@@ -5867,13 +6527,19 @@
       <c r="L110" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B111" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C111" t="n">
         <v>5</v>
@@ -5905,13 +6571,19 @@
       <c r="L111" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B112" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C112" t="n">
         <v>1</v>
@@ -5943,13 +6615,19 @@
       <c r="L112" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C113" t="n">
         <v>1</v>
@@ -5981,13 +6659,19 @@
       <c r="L113" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B114" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C114" t="n">
         <v>5</v>
@@ -6019,13 +6703,19 @@
       <c r="L114" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B115" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C115" t="n">
         <v>1</v>
@@ -6057,13 +6747,19 @@
       <c r="L115" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C116" t="n">
         <v>1</v>
@@ -6095,14 +6791,20 @@
       <c r="L116" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" t="s">
         <v>134</v>
       </c>
-      <c r="B117" t="s">
-        <v>132</v>
-      </c>
       <c r="C117" t="n">
         <v>1</v>
       </c>
@@ -6133,13 +6835,19 @@
       <c r="L117" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B118" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
@@ -6171,13 +6879,19 @@
       <c r="L118" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B119" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C119" t="n">
         <v>1</v>
@@ -6209,13 +6923,19 @@
       <c r="L119" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B120" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C120" t="n">
         <v>1</v>
@@ -6247,13 +6967,19 @@
       <c r="L120" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C121" t="n">
         <v>1</v>
@@ -6285,13 +7011,19 @@
       <c r="L121" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B122" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -6323,13 +7055,19 @@
       <c r="L122" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -6361,13 +7099,19 @@
       <c r="L123" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B124" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C124" t="n">
         <v>1</v>
@@ -6399,13 +7143,19 @@
       <c r="L124" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B125" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C125" t="n">
         <v>1</v>
@@ -6437,13 +7187,19 @@
       <c r="L125" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B126" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -6475,13 +7231,19 @@
       <c r="L126" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
@@ -6513,13 +7275,19 @@
       <c r="L127" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B128" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C128" t="n">
         <v>1</v>
@@ -6551,13 +7319,19 @@
       <c r="L128" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C129" t="n">
         <v>1</v>
@@ -6589,14 +7363,20 @@
       <c r="L129" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
       <c r="A130" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" t="s">
         <v>148</v>
       </c>
-      <c r="B130" t="s">
-        <v>146</v>
-      </c>
       <c r="C130" t="n">
         <v>1</v>
       </c>
@@ -6627,13 +7407,19 @@
       <c r="L130" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
       <c r="A131" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C131" t="n">
         <v>1</v>
@@ -6665,13 +7451,19 @@
       <c r="L131" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
       <c r="A132" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B132" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C132" t="n">
         <v>1</v>
@@ -6703,13 +7495,19 @@
       <c r="L132" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B133" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C133" t="n">
         <v>1</v>
@@ -6741,13 +7539,19 @@
       <c r="L133" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
       <c r="A134" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C134" t="n">
         <v>1</v>
@@ -6779,13 +7583,19 @@
       <c r="L134" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C135" t="n">
         <v>1</v>
@@ -6817,13 +7627,19 @@
       <c r="L135" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B136" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C136" t="n">
         <v>3</v>
@@ -6855,13 +7671,19 @@
       <c r="L136" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C137" t="n">
         <v>1</v>
@@ -6893,13 +7715,19 @@
       <c r="L137" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C138" t="n">
         <v>1</v>
@@ -6931,14 +7759,20 @@
       <c r="L138" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
       <c r="A139" t="s">
+        <v>160</v>
+      </c>
+      <c r="B139" t="s">
         <v>158</v>
       </c>
-      <c r="B139" t="s">
-        <v>156</v>
-      </c>
       <c r="C139" t="n">
         <v>1</v>
       </c>
@@ -6969,13 +7803,19 @@
       <c r="L139" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -7007,13 +7847,19 @@
       <c r="L140" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -7045,13 +7891,19 @@
       <c r="L141" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
       <c r="A142" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -7083,13 +7935,19 @@
       <c r="L142" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -7121,13 +7979,19 @@
       <c r="L143" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -7159,13 +8023,19 @@
       <c r="L144" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -7197,13 +8067,19 @@
       <c r="L145" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -7235,13 +8111,19 @@
       <c r="L146" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -7273,13 +8155,19 @@
       <c r="L147" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -7311,13 +8199,19 @@
       <c r="L148" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -7349,13 +8243,19 @@
       <c r="L149" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B150" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -7387,14 +8287,20 @@
       <c r="L150" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
       <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" t="s">
         <v>171</v>
       </c>
-      <c r="B151" t="s">
-        <v>169</v>
-      </c>
       <c r="C151" t="n">
         <v>1</v>
       </c>
@@ -7425,13 +8331,19 @@
       <c r="L151" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -7463,13 +8375,19 @@
       <c r="L152" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B153" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -7501,13 +8419,19 @@
       <c r="L153" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B154" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -7539,13 +8463,19 @@
       <c r="L154" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -7577,13 +8507,19 @@
       <c r="L155" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B156" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -7615,13 +8551,19 @@
       <c r="L156" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
+      <c r="N156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -7653,13 +8595,19 @@
       <c r="L157" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B158" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -7691,13 +8639,19 @@
       <c r="L158" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B159" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -7729,13 +8683,19 @@
       <c r="L159" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -7767,13 +8727,19 @@
       <c r="L160" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -7805,13 +8771,19 @@
       <c r="L161" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
       <c r="A162" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" t="s">
         <v>183</v>
-      </c>
-      <c r="B162" t="s">
-        <v>181</v>
       </c>
       <c r="C162" t="n">
         <v>3</v>
@@ -7843,13 +8815,19 @@
       <c r="L162" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B163" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -7881,13 +8859,19 @@
       <c r="L163" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B164" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -7919,13 +8903,19 @@
       <c r="L164" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B165" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -7957,13 +8947,19 @@
       <c r="L165" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -7995,13 +8991,19 @@
       <c r="L166" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -8033,13 +9035,19 @@
       <c r="L167" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B168" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -8071,13 +9079,19 @@
       <c r="L168" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B169" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -8109,13 +9123,19 @@
       <c r="L169" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B170" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -8147,13 +9167,19 @@
       <c r="L170" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B171" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -8185,14 +9211,20 @@
       <c r="L171" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
       <c r="A172" t="s">
+        <v>196</v>
+      </c>
+      <c r="B172" t="s">
         <v>194</v>
       </c>
-      <c r="B172" t="s">
-        <v>192</v>
-      </c>
       <c r="C172" t="n">
         <v>1</v>
       </c>
@@ -8223,13 +9255,19 @@
       <c r="L172" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -8261,13 +9299,19 @@
       <c r="L173" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B174" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -8299,13 +9343,19 @@
       <c r="L174" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B175" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -8337,13 +9387,19 @@
       <c r="L175" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B176" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -8375,13 +9431,19 @@
       <c r="L176" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B177" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -8413,13 +9475,19 @@
       <c r="L177" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B178" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -8451,13 +9519,19 @@
       <c r="L178" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B179" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -8489,13 +9563,19 @@
       <c r="L179" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14">
       <c r="A180" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B180" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -8527,13 +9607,19 @@
       <c r="L180" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
       <c r="A181" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -8565,13 +9651,19 @@
       <c r="L181" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
       <c r="A182" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B182" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -8603,13 +9695,19 @@
       <c r="L182" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
       <c r="A183" t="s">
+        <v>208</v>
+      </c>
+      <c r="B183" t="s">
         <v>206</v>
-      </c>
-      <c r="B183" t="s">
-        <v>204</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -8641,13 +9739,19 @@
       <c r="L183" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
       <c r="A184" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B184" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -8679,13 +9783,19 @@
       <c r="L184" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B185" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -8717,13 +9827,19 @@
       <c r="L185" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B186" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -8755,13 +9871,19 @@
       <c r="L186" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B187" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -8793,13 +9915,19 @@
       <c r="L187" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -8831,13 +9959,19 @@
       <c r="L188" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
       <c r="A189" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -8869,13 +10003,19 @@
       <c r="L189" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
       <c r="A190" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B190" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -8907,13 +10047,19 @@
       <c r="L190" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B191" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -8945,13 +10091,19 @@
       <c r="L191" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B192" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -8983,13 +10135,19 @@
       <c r="L192" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B193" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -9021,13 +10179,19 @@
       <c r="L193" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:12">
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B194" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -9059,13 +10223,19 @@
       <c r="L194" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
+      <c r="N194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -9097,13 +10267,19 @@
       <c r="L195" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:12">
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
       <c r="A196" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" t="s">
         <v>220</v>
-      </c>
-      <c r="B196" t="s">
-        <v>218</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -9135,13 +10311,19 @@
       <c r="L196" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:12">
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -9173,13 +10355,19 @@
       <c r="L197" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -9211,13 +10399,19 @@
       <c r="L198" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B199" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -9249,13 +10443,19 @@
       <c r="L199" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:12">
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B200" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -9287,13 +10487,19 @@
       <c r="L200" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:12">
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B201" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -9325,13 +10531,19 @@
       <c r="L201" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B202" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -9363,13 +10575,19 @@
       <c r="L202" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B203" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -9401,13 +10619,19 @@
       <c r="L203" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:12">
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B204" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -9439,14 +10663,20 @@
       <c r="L204" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" t="s">
+        <v>232</v>
+      </c>
+      <c r="B205" t="s">
         <v>230</v>
       </c>
-      <c r="B205" t="s">
-        <v>228</v>
-      </c>
       <c r="C205" t="n">
         <v>1</v>
       </c>
@@ -9477,13 +10707,19 @@
       <c r="L205" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B206" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -9515,13 +10751,19 @@
       <c r="L206" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -9553,13 +10795,19 @@
       <c r="L207" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B208" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -9591,13 +10839,19 @@
       <c r="L208" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B209" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -9629,13 +10883,19 @@
       <c r="L209" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -9667,13 +10927,19 @@
       <c r="L210" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -9705,13 +10971,19 @@
       <c r="L211" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B212" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -9743,13 +11015,19 @@
       <c r="L212" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B213" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -9781,13 +11059,19 @@
       <c r="L213" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:12">
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B214" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -9819,13 +11103,19 @@
       <c r="L214" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:12">
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B215" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -9857,13 +11147,19 @@
       <c r="L215" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:12">
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B216" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -9895,14 +11191,20 @@
       <c r="L216" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:12">
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" t="s">
+        <v>245</v>
+      </c>
+      <c r="B217" t="s">
         <v>243</v>
       </c>
-      <c r="B217" t="s">
-        <v>241</v>
-      </c>
       <c r="C217" t="n">
         <v>1</v>
       </c>
@@ -9933,13 +11235,19 @@
       <c r="L217" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:12">
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B218" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -9971,13 +11279,19 @@
       <c r="L218" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:12">
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B219" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -10009,13 +11323,19 @@
       <c r="L219" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:12">
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -10047,13 +11367,19 @@
       <c r="L220" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:12">
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B221" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C221" t="n">
         <v>3</v>
@@ -10085,13 +11411,19 @@
       <c r="L221" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:12">
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B222" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -10123,13 +11455,19 @@
       <c r="L222" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:12">
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B223" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -10161,13 +11499,19 @@
       <c r="L223" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:12">
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B224" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -10199,13 +11543,19 @@
       <c r="L224" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:12">
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B225" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -10237,13 +11587,19 @@
       <c r="L225" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:12">
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B226" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -10275,13 +11631,19 @@
       <c r="L226" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:12">
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B227" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C227" t="n">
         <v>3</v>
@@ -10313,13 +11675,19 @@
       <c r="L227" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:12">
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B228" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -10351,14 +11719,20 @@
       <c r="L228" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:12">
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14">
       <c r="A229" t="s">
+        <v>258</v>
+      </c>
+      <c r="B229" t="s">
         <v>256</v>
       </c>
-      <c r="B229" t="s">
-        <v>254</v>
-      </c>
       <c r="C229" t="n">
         <v>1</v>
       </c>
@@ -10389,13 +11763,19 @@
       <c r="L229" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:12">
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14">
       <c r="A230" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B230" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C230" t="n">
         <v>3</v>
@@ -10427,13 +11807,19 @@
       <c r="L230" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:12">
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14">
       <c r="A231" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B231" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -10465,13 +11851,19 @@
       <c r="L231" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:12">
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14">
       <c r="A232" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B232" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -10503,13 +11895,19 @@
       <c r="L232" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:12">
+      <c r="M232" t="n">
+        <v>0</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14">
       <c r="A233" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -10541,13 +11939,19 @@
       <c r="L233" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="1:12">
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14">
       <c r="A234" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B234" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -10579,13 +11983,19 @@
       <c r="L234" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="235" spans="1:12">
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14">
       <c r="A235" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -10617,13 +12027,19 @@
       <c r="L235" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:12">
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14">
       <c r="A236" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B236" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -10655,13 +12071,19 @@
       <c r="L236" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:12">
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14">
       <c r="A237" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B237" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -10693,13 +12115,19 @@
       <c r="L237" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:12">
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14">
       <c r="A238" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B238" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C238" t="n">
         <v>3</v>
@@ -10731,13 +12159,19 @@
       <c r="L238" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:12">
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14">
       <c r="A239" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B239" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -10769,13 +12203,19 @@
       <c r="L239" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:12">
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14">
       <c r="A240" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B240" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -10807,13 +12247,19 @@
       <c r="L240" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:12">
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14">
       <c r="A241" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B241" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -10845,13 +12291,19 @@
       <c r="L241" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:12">
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14">
       <c r="A242" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B242" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -10883,13 +12335,19 @@
       <c r="L242" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="243" spans="1:12">
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14">
       <c r="A243" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B243" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -10921,13 +12379,19 @@
       <c r="L243" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:12">
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14">
       <c r="A244" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B244" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -10959,13 +12423,19 @@
       <c r="L244" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:12">
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
+      <c r="N244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14">
       <c r="A245" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C245" t="n">
         <v>3</v>
@@ -10997,13 +12467,19 @@
       <c r="L245" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:12">
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14">
       <c r="A246" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B246" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -11035,13 +12511,19 @@
       <c r="L246" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:12">
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14">
       <c r="A247" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B247" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -11073,13 +12555,19 @@
       <c r="L247" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:12">
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14">
       <c r="A248" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B248" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -11111,13 +12599,19 @@
       <c r="L248" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:12">
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14">
       <c r="A249" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B249" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -11149,13 +12643,19 @@
       <c r="L249" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:12">
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
+      <c r="N249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14">
       <c r="A250" t="s">
+        <v>280</v>
+      </c>
+      <c r="B250" t="s">
         <v>278</v>
-      </c>
-      <c r="B250" t="s">
-        <v>276</v>
       </c>
       <c r="C250" t="n">
         <v>3</v>
@@ -11187,13 +12687,19 @@
       <c r="L250" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:12">
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14">
       <c r="A251" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>
@@ -11225,13 +12731,19 @@
       <c r="L251" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:12">
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14">
       <c r="A252" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -11263,13 +12775,19 @@
       <c r="L252" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="253" spans="1:12">
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
+      <c r="N252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14">
       <c r="A253" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C253" t="n">
         <v>5</v>
@@ -11301,13 +12819,19 @@
       <c r="L253" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:12">
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14">
       <c r="A254" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B254" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
@@ -11339,13 +12863,19 @@
       <c r="L254" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="255" spans="1:12">
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
+      <c r="N254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14">
       <c r="A255" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C255" t="n">
         <v>1</v>
@@ -11377,13 +12907,19 @@
       <c r="L255" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="256" spans="1:12">
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
+      <c r="N255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14">
       <c r="A256" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -11415,13 +12951,19 @@
       <c r="L256" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:12">
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14">
       <c r="A257" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -11453,13 +12995,19 @@
       <c r="L257" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="1:12">
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14">
       <c r="A258" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B258" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -11491,13 +13039,19 @@
       <c r="L258" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:12">
+      <c r="M258" t="n">
+        <v>1</v>
+      </c>
+      <c r="N258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14">
       <c r="A259" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B259" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -11529,14 +13083,20 @@
       <c r="L259" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="1:12">
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
+      <c r="N259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14">
       <c r="A260" t="s">
+        <v>291</v>
+      </c>
+      <c r="B260" t="s">
         <v>289</v>
       </c>
-      <c r="B260" t="s">
-        <v>287</v>
-      </c>
       <c r="C260" t="n">
         <v>1</v>
       </c>
@@ -11567,13 +13127,19 @@
       <c r="L260" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:12">
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
+      <c r="N260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14">
       <c r="A261" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B261" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C261" t="n">
         <v>1</v>
@@ -11605,13 +13171,19 @@
       <c r="L261" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:12">
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14">
       <c r="A262" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B262" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C262" t="n">
         <v>1</v>
@@ -11643,13 +13215,19 @@
       <c r="L262" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="1:12">
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
+      <c r="N262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14">
       <c r="A263" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B263" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C263" t="n">
         <v>3</v>
@@ -11681,13 +13259,19 @@
       <c r="L263" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:12">
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B264" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C264" t="n">
         <v>1</v>
@@ -11719,13 +13303,19 @@
       <c r="L264" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:12">
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14">
       <c r="A265" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B265" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
@@ -11757,13 +13347,19 @@
       <c r="L265" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="266" spans="1:12">
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
+      <c r="N265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14">
       <c r="A266" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B266" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -11795,13 +13391,19 @@
       <c r="L266" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:12">
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14">
       <c r="A267" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B267" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -11833,13 +13435,19 @@
       <c r="L267" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:12">
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
+      <c r="N267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14">
       <c r="A268" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B268" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -11871,13 +13479,19 @@
       <c r="L268" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="1:12">
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14">
       <c r="A269" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B269" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C269" t="n">
         <v>1</v>
@@ -11909,14 +13523,20 @@
       <c r="L269" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="1:12">
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
+      <c r="N269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14">
       <c r="A270" t="s">
+        <v>302</v>
+      </c>
+      <c r="B270" t="s">
         <v>300</v>
       </c>
-      <c r="B270" t="s">
-        <v>298</v>
-      </c>
       <c r="C270" t="n">
         <v>1</v>
       </c>
@@ -11947,13 +13567,19 @@
       <c r="L270" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="1:12">
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14">
       <c r="A271" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B271" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C271" t="n">
         <v>1</v>
@@ -11985,13 +13611,19 @@
       <c r="L271" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="1:12">
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14">
       <c r="A272" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B272" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -12023,13 +13655,19 @@
       <c r="L272" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="1:12">
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14">
       <c r="A273" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B273" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C273" t="n">
         <v>1</v>
@@ -12061,13 +13699,19 @@
       <c r="L273" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="1:12">
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14">
       <c r="A274" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B274" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -12099,13 +13743,19 @@
       <c r="L274" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="275" spans="1:12">
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14">
       <c r="A275" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B275" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C275" t="n">
         <v>1</v>
@@ -12137,13 +13787,19 @@
       <c r="L275" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="276" spans="1:12">
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14">
       <c r="A276" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B276" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
@@ -12175,13 +13831,19 @@
       <c r="L276" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="277" spans="1:12">
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14">
       <c r="A277" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B277" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C277" t="n">
         <v>1</v>
@@ -12213,13 +13875,19 @@
       <c r="L277" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="278" spans="1:12">
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14">
       <c r="A278" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B278" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -12251,13 +13919,19 @@
       <c r="L278" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="1:12">
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14">
       <c r="A279" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B279" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C279" t="n">
         <v>1</v>
@@ -12289,13 +13963,19 @@
       <c r="L279" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:12">
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14">
       <c r="A280" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B280" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -12327,13 +14007,19 @@
       <c r="L280" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="1:12">
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14">
       <c r="A281" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B281" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C281" t="n">
         <v>1</v>
@@ -12365,13 +14051,19 @@
       <c r="L281" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="1:12">
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14">
       <c r="A282" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B282" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -12403,13 +14095,19 @@
       <c r="L282" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="1:12">
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14">
       <c r="A283" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B283" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -12441,14 +14139,20 @@
       <c r="L283" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="1:12">
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14">
       <c r="A284" t="s">
+        <v>317</v>
+      </c>
+      <c r="B284" t="s">
         <v>315</v>
       </c>
-      <c r="B284" t="s">
-        <v>313</v>
-      </c>
       <c r="C284" t="n">
         <v>1</v>
       </c>
@@ -12479,13 +14183,19 @@
       <c r="L284" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:12">
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14">
       <c r="A285" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B285" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -12517,13 +14227,19 @@
       <c r="L285" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="1:12">
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14">
       <c r="A286" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B286" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -12555,13 +14271,19 @@
       <c r="L286" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="1:12">
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
+      <c r="N286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14">
       <c r="A287" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B287" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C287" t="n">
         <v>1</v>
@@ -12593,13 +14315,19 @@
       <c r="L287" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="1:12">
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
+      <c r="N287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14">
       <c r="A288" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B288" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C288" t="n">
         <v>1</v>
@@ -12631,13 +14359,19 @@
       <c r="L288" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:12">
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
+      <c r="N288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14">
       <c r="A289" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B289" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C289" t="n">
         <v>5</v>
@@ -12669,13 +14403,19 @@
       <c r="L289" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="1:12">
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14">
       <c r="A290" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B290" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C290" t="n">
         <v>1</v>
@@ -12707,13 +14447,19 @@
       <c r="L290" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="1:12">
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14">
       <c r="A291" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B291" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -12745,13 +14491,19 @@
       <c r="L291" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:12">
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
+      <c r="N291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14">
       <c r="A292" t="s">
+        <v>326</v>
+      </c>
+      <c r="B292" t="s">
         <v>324</v>
-      </c>
-      <c r="B292" t="s">
-        <v>322</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -12783,13 +14535,19 @@
       <c r="L292" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="1:12">
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14">
       <c r="A293" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B293" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -12821,13 +14579,19 @@
       <c r="L293" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="1:12">
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14">
       <c r="A294" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B294" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -12859,13 +14623,19 @@
       <c r="L294" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="1:12">
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14">
       <c r="A295" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B295" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -12897,13 +14667,19 @@
       <c r="L295" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="1:12">
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14">
       <c r="A296" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B296" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C296" t="n">
         <v>1</v>
@@ -12935,13 +14711,19 @@
       <c r="L296" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:12">
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
+      <c r="N296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14">
       <c r="A297" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B297" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -12973,13 +14755,19 @@
       <c r="L297" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="1:12">
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14">
       <c r="A298" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B298" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -13011,13 +14799,19 @@
       <c r="L298" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:12">
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14">
       <c r="A299" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B299" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C299" t="n">
         <v>1</v>
@@ -13049,13 +14843,19 @@
       <c r="L299" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:12">
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14">
       <c r="A300" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B300" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -13087,13 +14887,19 @@
       <c r="L300" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="1:12">
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
+      <c r="N300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14">
       <c r="A301" t="s">
+        <v>336</v>
+      </c>
+      <c r="B301" t="s">
         <v>334</v>
-      </c>
-      <c r="B301" t="s">
-        <v>332</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -13125,13 +14931,19 @@
       <c r="L301" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="1:12">
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14">
       <c r="A302" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B302" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -13163,13 +14975,19 @@
       <c r="L302" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="1:12">
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
+      <c r="N302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14">
       <c r="A303" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B303" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -13201,13 +15019,19 @@
       <c r="L303" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="1:12">
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
+      <c r="N303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14">
       <c r="A304" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B304" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C304" t="n">
         <v>1</v>
@@ -13239,13 +15063,19 @@
       <c r="L304" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="1:12">
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
+      <c r="N304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14">
       <c r="A305" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B305" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C305" t="n">
         <v>1</v>
@@ -13277,13 +15107,19 @@
       <c r="L305" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="1:12">
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14">
       <c r="A306" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B306" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -13315,13 +15151,19 @@
       <c r="L306" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="1:12">
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
+      <c r="N306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14">
       <c r="A307" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B307" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -13353,13 +15195,19 @@
       <c r="L307" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="308" spans="1:12">
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
+      <c r="N307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14">
       <c r="A308" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B308" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C308" t="n">
         <v>1</v>
@@ -13391,13 +15239,19 @@
       <c r="L308" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:12">
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
+      <c r="N308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14">
       <c r="A309" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B309" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C309" t="n">
         <v>1</v>
@@ -13429,13 +15283,19 @@
       <c r="L309" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:12">
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14">
       <c r="A310" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B310" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -13467,13 +15327,19 @@
       <c r="L310" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:12">
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14">
       <c r="A311" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B311" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -13505,13 +15371,19 @@
       <c r="L311" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="312" spans="1:12">
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14">
       <c r="A312" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B312" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C312" t="n">
         <v>3</v>
@@ -13543,14 +15415,20 @@
       <c r="L312" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:12">
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
+      <c r="N312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14">
       <c r="A313" t="s">
+        <v>349</v>
+      </c>
+      <c r="B313" t="s">
         <v>347</v>
       </c>
-      <c r="B313" t="s">
-        <v>345</v>
-      </c>
       <c r="C313" t="n">
         <v>1</v>
       </c>
@@ -13581,13 +15459,19 @@
       <c r="L313" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:12">
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14">
       <c r="A314" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B314" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C314" t="n">
         <v>1</v>
@@ -13619,13 +15503,19 @@
       <c r="L314" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="315" spans="1:12">
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14">
       <c r="A315" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B315" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C315" t="n">
         <v>1</v>
@@ -13657,13 +15547,19 @@
       <c r="L315" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:12">
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14">
       <c r="A316" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B316" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C316" t="n">
         <v>1</v>
@@ -13695,13 +15591,19 @@
       <c r="L316" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:12">
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
+      <c r="N316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14">
       <c r="A317" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B317" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C317" t="n">
         <v>1</v>
@@ -13733,13 +15635,19 @@
       <c r="L317" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:12">
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
+      <c r="N317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14">
       <c r="A318" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B318" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C318" t="n">
         <v>1</v>
@@ -13771,13 +15679,19 @@
       <c r="L318" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:12">
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14">
       <c r="A319" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B319" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -13809,13 +15723,19 @@
       <c r="L319" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:12">
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14">
       <c r="A320" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B320" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C320" t="n">
         <v>1</v>
@@ -13847,13 +15767,19 @@
       <c r="L320" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:12">
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14">
       <c r="A321" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B321" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -13885,13 +15811,19 @@
       <c r="L321" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:12">
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
+      <c r="N321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14">
       <c r="A322" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B322" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -13923,13 +15855,19 @@
       <c r="L322" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:12">
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
+      <c r="N322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14">
       <c r="A323" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B323" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C323" t="n">
         <v>1</v>
@@ -13961,13 +15899,19 @@
       <c r="L323" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:12">
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
+      <c r="N323" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14">
       <c r="A324" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B324" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -13999,14 +15943,20 @@
       <c r="L324" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:12">
+      <c r="M324" t="n">
+        <v>1</v>
+      </c>
+      <c r="N324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14">
       <c r="A325" t="s">
+        <v>362</v>
+      </c>
+      <c r="B325" t="s">
         <v>360</v>
       </c>
-      <c r="B325" t="s">
-        <v>358</v>
-      </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
@@ -14037,13 +15987,19 @@
       <c r="L325" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:12">
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
+      <c r="N325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14">
       <c r="A326" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B326" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -14075,13 +16031,19 @@
       <c r="L326" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:12">
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
+      <c r="N326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14">
       <c r="A327" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B327" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C327" t="n">
         <v>1</v>
@@ -14113,13 +16075,19 @@
       <c r="L327" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:12">
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
+      <c r="N327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14">
       <c r="A328" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B328" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C328" t="n">
         <v>1</v>
@@ -14151,13 +16119,19 @@
       <c r="L328" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:12">
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
+      <c r="N328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14">
       <c r="A329" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B329" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -14189,13 +16163,19 @@
       <c r="L329" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:12">
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
+      <c r="N329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14">
       <c r="A330" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B330" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C330" t="n">
         <v>1</v>
@@ -14227,13 +16207,19 @@
       <c r="L330" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:12">
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
+      <c r="N330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14">
       <c r="A331" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B331" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -14265,13 +16251,19 @@
       <c r="L331" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:12">
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
+      <c r="N331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14">
       <c r="A332" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B332" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C332" t="n">
         <v>1</v>
@@ -14303,13 +16295,19 @@
       <c r="L332" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:12">
+      <c r="M332" t="n">
+        <v>1</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14">
       <c r="A333" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B333" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -14341,13 +16339,19 @@
       <c r="L333" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:12">
+      <c r="M333" t="n">
+        <v>1</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14">
       <c r="A334" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B334" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C334" t="n">
         <v>1</v>
@@ -14379,13 +16383,19 @@
       <c r="L334" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:12">
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14">
       <c r="A335" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B335" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C335" t="n">
         <v>1</v>
@@ -14417,13 +16427,19 @@
       <c r="L335" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:12">
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
+      <c r="N335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14">
       <c r="A336" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B336" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C336" t="n">
         <v>1</v>
@@ -14455,13 +16471,19 @@
       <c r="L336" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:12">
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
+      <c r="N336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14">
       <c r="A337" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B337" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C337" t="n">
         <v>1</v>
@@ -14493,13 +16515,19 @@
       <c r="L337" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:12">
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
+      <c r="N337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14">
       <c r="A338" t="s">
+        <v>376</v>
+      </c>
+      <c r="B338" t="s">
         <v>374</v>
-      </c>
-      <c r="B338" t="s">
-        <v>372</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -14531,13 +16559,19 @@
       <c r="L338" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:12">
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
+      <c r="N338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14">
       <c r="A339" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B339" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -14569,13 +16603,19 @@
       <c r="L339" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:12">
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14">
       <c r="A340" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B340" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C340" t="n">
         <v>1</v>
@@ -14607,13 +16647,19 @@
       <c r="L340" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:12">
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14">
       <c r="A341" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B341" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C341" t="n">
         <v>1</v>
@@ -14645,13 +16691,19 @@
       <c r="L341" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:12">
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14">
       <c r="A342" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B342" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C342" t="n">
         <v>1</v>
@@ -14683,13 +16735,19 @@
       <c r="L342" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:12">
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
+      <c r="N342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14">
       <c r="A343" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B343" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C343" t="n">
         <v>1</v>
@@ -14721,13 +16779,19 @@
       <c r="L343" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:12">
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14">
       <c r="A344" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B344" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C344" t="n">
         <v>1</v>
@@ -14759,13 +16823,19 @@
       <c r="L344" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:12">
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
+      <c r="N344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14">
       <c r="A345" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B345" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C345" t="n">
         <v>1</v>
@@ -14797,13 +16867,19 @@
       <c r="L345" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:12">
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
+      <c r="N345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14">
       <c r="A346" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B346" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C346" t="n">
         <v>1</v>
@@ -14835,13 +16911,19 @@
       <c r="L346" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:12">
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
+      <c r="N346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14">
       <c r="A347" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B347" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C347" t="n">
         <v>1</v>
@@ -14873,13 +16955,19 @@
       <c r="L347" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:12">
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
+      <c r="N347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14">
       <c r="A348" t="s">
+        <v>387</v>
+      </c>
+      <c r="B348" t="s">
         <v>385</v>
-      </c>
-      <c r="B348" t="s">
-        <v>383</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -14911,13 +16999,19 @@
       <c r="L348" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:12">
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
+      <c r="N348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14">
       <c r="A349" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B349" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C349" t="n">
         <v>1</v>
@@ -14949,13 +17043,19 @@
       <c r="L349" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:12">
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
+      <c r="N349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14">
       <c r="A350" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B350" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C350" t="n">
         <v>1</v>
@@ -14987,13 +17087,19 @@
       <c r="L350" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:12">
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
       <c r="A351" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B351" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C351" t="n">
         <v>1</v>
@@ -15025,13 +17131,19 @@
       <c r="L351" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:12">
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
+      <c r="N351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
       <c r="A352" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B352" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -15063,13 +17175,19 @@
       <c r="L352" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:12">
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
+      <c r="N352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
       <c r="A353" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B353" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -15101,13 +17219,19 @@
       <c r="L353" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:12">
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
+      <c r="N353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
       <c r="A354" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B354" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -15139,13 +17263,19 @@
       <c r="L354" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="355" spans="1:12">
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
       <c r="A355" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B355" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -15177,13 +17307,19 @@
       <c r="L355" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:12">
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
       <c r="A356" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B356" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C356" t="n">
         <v>1</v>
@@ -15215,13 +17351,19 @@
       <c r="L356" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:12">
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
       <c r="A357" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B357" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C357" t="n">
         <v>3</v>
@@ -15253,13 +17395,19 @@
       <c r="L357" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="358" spans="1:12">
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N357" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
       <c r="A358" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B358" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -15291,14 +17439,20 @@
       <c r="L358" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:12">
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
       <c r="A359" t="s">
+        <v>399</v>
+      </c>
+      <c r="B359" t="s">
         <v>397</v>
       </c>
-      <c r="B359" t="s">
-        <v>395</v>
-      </c>
       <c r="C359" t="n">
         <v>1</v>
       </c>
@@ -15329,13 +17483,19 @@
       <c r="L359" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:12">
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
       <c r="A360" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B360" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -15367,13 +17527,19 @@
       <c r="L360" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:12">
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
       <c r="A361" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B361" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -15405,13 +17571,19 @@
       <c r="L361" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:12">
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
       <c r="A362" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B362" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C362" t="n">
         <v>1</v>
@@ -15443,13 +17615,19 @@
       <c r="L362" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="363" spans="1:12">
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
       <c r="A363" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B363" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C363" t="n">
         <v>1</v>
@@ -15481,13 +17659,19 @@
       <c r="L363" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:12">
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
       <c r="A364" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B364" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C364" t="n">
         <v>1</v>
@@ -15519,13 +17703,19 @@
       <c r="L364" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:12">
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
       <c r="A365" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B365" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C365" t="n">
         <v>1</v>
@@ -15557,13 +17747,19 @@
       <c r="L365" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:12">
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
       <c r="A366" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B366" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C366" t="n">
         <v>1</v>
@@ -15595,13 +17791,19 @@
       <c r="L366" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:12">
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
       <c r="A367" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B367" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C367" t="n">
         <v>3</v>
@@ -15633,13 +17835,19 @@
       <c r="L367" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="368" spans="1:12">
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
       <c r="A368" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B368" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C368" t="n">
         <v>3</v>
@@ -15671,13 +17879,19 @@
       <c r="L368" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="369" spans="1:12">
+      <c r="M368" t="n">
+        <v>1</v>
+      </c>
+      <c r="N368" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
       <c r="A369" t="s">
+        <v>410</v>
+      </c>
+      <c r="B369" t="s">
         <v>408</v>
-      </c>
-      <c r="B369" t="s">
-        <v>406</v>
       </c>
       <c r="C369" t="n">
         <v>3</v>
@@ -15709,13 +17923,19 @@
       <c r="L369" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:12">
+      <c r="M369" t="n">
+        <v>1</v>
+      </c>
+      <c r="N369" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
       <c r="A370" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B370" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C370" t="n">
         <v>1</v>
@@ -15747,13 +17967,19 @@
       <c r="L370" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="371" spans="1:12">
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
       <c r="A371" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B371" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C371" t="n">
         <v>5</v>
@@ -15785,13 +18011,19 @@
       <c r="L371" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="372" spans="1:12">
+      <c r="M371" t="n">
+        <v>1</v>
+      </c>
+      <c r="N371" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
       <c r="A372" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B372" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C372" t="n">
         <v>5</v>
@@ -15823,13 +18055,19 @@
       <c r="L372" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="373" spans="1:12">
+      <c r="M372" t="n">
+        <v>1</v>
+      </c>
+      <c r="N372" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
       <c r="A373" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B373" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C373" t="n">
         <v>1</v>
@@ -15861,13 +18099,19 @@
       <c r="L373" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:12">
+      <c r="M373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14">
       <c r="A374" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B374" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C374" t="n">
         <v>1</v>
@@ -15899,13 +18143,19 @@
       <c r="L374" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="375" spans="1:12">
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:14">
       <c r="A375" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B375" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C375" t="n">
         <v>3</v>
@@ -15937,13 +18187,19 @@
       <c r="L375" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="376" spans="1:12">
+      <c r="M375" t="n">
+        <v>1</v>
+      </c>
+      <c r="N375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:14">
       <c r="A376" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B376" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -15975,13 +18231,19 @@
       <c r="L376" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="377" spans="1:12">
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
       <c r="A377" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B377" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -16013,13 +18275,19 @@
       <c r="L377" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="378" spans="1:12">
+      <c r="M377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
       <c r="A378" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B378" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C378" t="n">
         <v>1</v>
@@ -16051,14 +18319,20 @@
       <c r="L378" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="379" spans="1:12">
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
       <c r="A379" t="s">
+        <v>421</v>
+      </c>
+      <c r="B379" t="s">
         <v>419</v>
       </c>
-      <c r="B379" t="s">
-        <v>417</v>
-      </c>
       <c r="C379" t="n">
         <v>1</v>
       </c>
@@ -16089,13 +18363,19 @@
       <c r="L379" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="380" spans="1:12">
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
       <c r="A380" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B380" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C380" t="n">
         <v>1</v>
@@ -16127,13 +18407,19 @@
       <c r="L380" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="381" spans="1:12">
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
       <c r="A381" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B381" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C381" t="n">
         <v>1</v>
@@ -16165,13 +18451,19 @@
       <c r="L381" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:12">
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
       <c r="A382" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B382" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C382" t="n">
         <v>3</v>
@@ -16203,13 +18495,19 @@
       <c r="L382" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="383" spans="1:12">
+      <c r="M382" t="n">
+        <v>1</v>
+      </c>
+      <c r="N382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
       <c r="A383" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B383" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C383" t="n">
         <v>3</v>
@@ -16241,13 +18539,19 @@
       <c r="L383" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="384" spans="1:12">
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
       <c r="A384" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B384" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -16279,13 +18583,19 @@
       <c r="L384" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="385" spans="1:12">
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
       <c r="A385" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B385" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -16317,13 +18627,19 @@
       <c r="L385" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="386" spans="1:12">
+      <c r="M385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
       <c r="A386" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B386" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C386" t="n">
         <v>1</v>
@@ -16355,13 +18671,19 @@
       <c r="L386" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="387" spans="1:12">
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
       <c r="A387" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B387" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C387" t="n">
         <v>1</v>
@@ -16393,13 +18715,19 @@
       <c r="L387" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="388" spans="1:12">
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
       <c r="A388" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B388" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C388" t="n">
         <v>1</v>
@@ -16431,14 +18759,20 @@
       <c r="L388" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="389" spans="1:12">
+      <c r="M388" t="n">
+        <v>1</v>
+      </c>
+      <c r="N388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
       <c r="A389" t="s">
+        <v>432</v>
+      </c>
+      <c r="B389" t="s">
         <v>430</v>
       </c>
-      <c r="B389" t="s">
-        <v>428</v>
-      </c>
       <c r="C389" t="n">
         <v>1</v>
       </c>
@@ -16469,13 +18803,19 @@
       <c r="L389" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="390" spans="1:12">
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
       <c r="A390" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B390" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -16507,13 +18847,19 @@
       <c r="L390" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="391" spans="1:12">
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
       <c r="A391" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B391" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C391" t="n">
         <v>1</v>
@@ -16545,13 +18891,19 @@
       <c r="L391" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="392" spans="1:12">
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
       <c r="A392" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B392" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
@@ -16583,13 +18935,19 @@
       <c r="L392" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="393" spans="1:12">
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
       <c r="A393" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B393" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C393" t="n">
         <v>1</v>
@@ -16621,13 +18979,19 @@
       <c r="L393" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="394" spans="1:12">
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
       <c r="A394" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B394" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C394" t="n">
         <v>1</v>
@@ -16659,13 +19023,19 @@
       <c r="L394" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="395" spans="1:12">
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
       <c r="A395" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B395" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C395" t="n">
         <v>1</v>
@@ -16697,13 +19067,19 @@
       <c r="L395" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="396" spans="1:12">
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
       <c r="A396" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B396" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -16735,13 +19111,19 @@
       <c r="L396" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="397" spans="1:12">
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
       <c r="A397" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B397" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C397" t="n">
         <v>1</v>
@@ -16772,6 +19154,12 @@
       </c>
       <c r="L397" t="n">
         <v>5</v>
+      </c>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N397" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
